--- a/database/Database_Structure.xlsx
+++ b/database/Database_Structure.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>owner_name</t>
+  </si>
+  <si>
+    <t>BMG1</t>
+  </si>
+  <si>
+    <t>BMG2</t>
   </si>
 </sst>
 </file>
@@ -476,93 +488,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -704,7 +723,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
